--- a/biology/Botanique/Paypayrola/Paypayrola.xlsx
+++ b/biology/Botanique/Paypayrola/Paypayrola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paypayrola est un genre néotropical de plantes à fleurs de la famille des Violaceae, comprenant 9 à 11 espèces, et dont l'espèce type est Paypayrola guianensis Aubl., 1775. 
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « PAYPAYROLA. (Tabula 99.)
 CAL. Perianthium monophyllum, quinquepartitum, laciniis ſubrotundis, acutis. 
 COR. Petala quinque, oblonga, anguſta, erecta, ſimùl unita, tubum mentientia ; apicibus rerlexis, uno majori, emarginato ; diſco infrà germen inſerta. 
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (11 mai 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (11 mai 2022) :
 Paypayrola arenacea Aymard &amp; G.A.Romero
 Paypayrola blanchetiana Tul.
 Paypayrola bordenavei (H.E.Ballard &amp; Munzinger) Byng &amp; Christenh.
@@ -562,7 +578,7 @@
 Paypayrola guianensis Aubl.
 Paypayrola hulkiana Pulle
 Paypayrola longifolia Tul.
-Selon Tropicos                                           (11 mai 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Paypayrola arenacea Aymard &amp; G.A. Romero, 2014
 Paypayrola blanchetiana Tul., 1847
 Paypayrola brasiliensis Steud.
